--- a/medicine/Mort/Cimetière_israélite_de_Jungholtz/Cimetière_israélite_de_Jungholtz.xlsx
+++ b/medicine/Mort/Cimetière_israélite_de_Jungholtz/Cimetière_israélite_de_Jungholtz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_isra%C3%A9lite_de_Jungholtz</t>
+          <t>Cimetière_israélite_de_Jungholtz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière israélite de Jungholtz, dans le Haut-Rhin, est créé en 1655. Les plus anciennes stèles datent du début du XVIIIe siècle (1715) et les plus récentes de 1923. Il s'agit du plus ancien cimetière juif du Haut-Rhin.
 Une partie du cimetière est classée, une autre est inscrite à l'inventaire des monuments historiques.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_isra%C3%A9lite_de_Jungholtz</t>
+          <t>Cimetière_israélite_de_Jungholtz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est situé rue des Tuiles et rue du Château à Jungholtz.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_isra%C3%A9lite_de_Jungholtz</t>
+          <t>Cimetière_israélite_de_Jungholtz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'édifice fait l'objet d'une inscription au titre des monuments historiques depuis 1991[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'édifice fait l'objet d'une inscription au titre des monuments historiques depuis 1991,.
 Parmi les noms de tous ceux qui y furent ensevelis, on retiendra celui de Hirtzel Lévy. Rompu vif le 31 décembre 1754 à Colmar pour un crime dont il était innocent, l'arrêt fut cassé par le Conseil Privé du Roi, réuni à Versailles. Il fut réhabilité par le Parlement de Metz et enseveli à Jungholtz le 29 septembre 1755, après avoir été exposé sur la roue pendant près de neuf mois.
-L'édifice fait l'objet d'un classement au titre des monuments historiques depuis 1995[1].
+L'édifice fait l'objet d'un classement au titre des monuments historiques depuis 1995.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_isra%C3%A9lite_de_Jungholtz</t>
+          <t>Cimetière_israélite_de_Jungholtz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
